--- a/src/test/resources/test_data/Test Data.xlsx
+++ b/src/test/resources/test_data/Test Data.xlsx
@@ -1,25 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Aeon Requirements\Katalon\TEST\Data Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3662E86B-A716-4AFA-89C9-A6435036FD87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34623DDB-0C56-47AC-AA7B-3980AB7F5863}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Swag Labs</t>
+  </si>
+  <si>
+    <t>Sauce Labs Backpack</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Test First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Test Last Name</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>Test Zip Code</t>
+  </si>
+  <si>
+    <t>Checkout Item</t>
+  </si>
+  <si>
+    <t>Order Confirmation</t>
+  </si>
+  <si>
+    <t>Thank you for your order!</t>
+  </si>
+  <si>
+    <t>Cart Item</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -85,7 +144,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +156,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +203,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +255,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +423,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C70915-AD67-45DF-87CF-80270251449F}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/test_data/Test Data.xlsx
+++ b/src/test/resources/test_data/Test Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Aeon Requirements\Katalon\TEST\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtdeguzman\git\TestNG_SwagLabs\src\test\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3662E86B-A716-4AFA-89C9-A6435036FD87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBD8AB3-8714-426D-A775-560D651A7ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34623DDB-0C56-47AC-AA7B-3980AB7F5863}"/>
+    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="16638" xr2:uid="{34623DDB-0C56-47AC-AA7B-3980AB7F5863}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Header</t>
   </si>
@@ -39,44 +39,104 @@
     <t>Swag Labs</t>
   </si>
   <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>Checkout Item</t>
+  </si>
+  <si>
+    <t>Order Confirmation</t>
+  </si>
+  <si>
+    <t>Thank you for your order!</t>
+  </si>
+  <si>
+    <t>Cart Item</t>
+  </si>
+  <si>
+    <t>Sauce Labs Onesie</t>
+  </si>
+  <si>
+    <t>Sauce Labs Bike Light</t>
+  </si>
+  <si>
+    <t>Test First Name 1</t>
+  </si>
+  <si>
+    <t>Test First Name 2</t>
+  </si>
+  <si>
+    <t>Test Last Name 1</t>
+  </si>
+  <si>
+    <t>Test Zip Code 1</t>
+  </si>
+  <si>
+    <t>Test Last Name 2</t>
+  </si>
+  <si>
+    <t>Test Zip Code 2</t>
+  </si>
+  <si>
+    <t>Test First Name 3</t>
+  </si>
+  <si>
+    <t>Test Last Name 3</t>
+  </si>
+  <si>
+    <t>Test Zip Code 3</t>
+  </si>
+  <si>
+    <t>Test First Name 4</t>
+  </si>
+  <si>
+    <t>Test Last Name 4</t>
+  </si>
+  <si>
+    <t>Test Zip Code 4</t>
+  </si>
+  <si>
+    <t>Test First Name 5</t>
+  </si>
+  <si>
+    <t>Test Last Name 5</t>
+  </si>
+  <si>
+    <t>Test Zip Code 5</t>
+  </si>
+  <si>
+    <t>Test First Name 6</t>
+  </si>
+  <si>
+    <t>Test Last Name 6</t>
+  </si>
+  <si>
+    <t>Test Zip Code 6</t>
+  </si>
+  <si>
     <t>Sauce Labs Backpack</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Test First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Test Last Name</t>
-  </si>
-  <si>
-    <t>Zip Code</t>
-  </si>
-  <si>
-    <t>Test Zip Code</t>
-  </si>
-  <si>
-    <t>Checkout Item</t>
-  </si>
-  <si>
-    <t>Order Confirmation</t>
-  </si>
-  <si>
-    <t>Thank you for your order!</t>
-  </si>
-  <si>
-    <t>Cart Item</t>
+    <t>Sauce Labs Bolt T-Shirt</t>
+  </si>
+  <si>
+    <t>Sauce Labs Fleece Jacket</t>
+  </si>
+  <si>
+    <t>Test.allTheThings() T-Shirt (Red)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +144,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,9 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -128,9 +203,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +243,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -274,7 +349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,7 +491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -424,68 +499,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C70915-AD67-45DF-87CF-80270251449F}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>